--- a/src/main/resources/importCar.xlsx
+++ b/src/main/resources/importCar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machouse/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machouse/IdeaProjects/JavaExercise2/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C173F7E-5338-A248-8347-91B7CE692E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA2B13E-0277-D546-BB08-CD624A59D857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="4340" windowWidth="22440" windowHeight="12260" xr2:uid="{C0ECE636-70C4-8D48-9836-E897D14C9337}"/>
+    <workbookView xWindow="17340" yWindow="2960" windowWidth="22440" windowHeight="12260" xr2:uid="{C0ECE636-70C4-8D48-9836-E897D14C9337}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Acura</t>
   </si>
@@ -81,16 +81,258 @@
   </si>
   <si>
     <t>AD112</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>Cadillac</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>CBF21321</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>Chevrolet</t>
+  </si>
+  <si>
+    <t>Celestial</t>
+  </si>
+  <si>
+    <t>FAS423</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
+  </si>
+  <si>
+    <t>Jeep</t>
+  </si>
+  <si>
+    <t>Kia</t>
+  </si>
+  <si>
+    <t>Lexus</t>
+  </si>
+  <si>
+    <t>Land Rover</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>Rolls-Royce</t>
+  </si>
+  <si>
+    <t>Porsche</t>
+  </si>
+  <si>
+    <t>Subaru</t>
+  </si>
+  <si>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Specter</t>
+  </si>
+  <si>
+    <t>Cobra</t>
+  </si>
+  <si>
+    <t>Paradox</t>
+  </si>
+  <si>
+    <t>Paladin</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Glitchpop</t>
+  </si>
+  <si>
+    <t>Ion</t>
+  </si>
+  <si>
+    <t>Flame</t>
+  </si>
+  <si>
+    <t>RGX</t>
+  </si>
+  <si>
+    <t>Serpent</t>
+  </si>
+  <si>
+    <t>Alabaster</t>
+  </si>
+  <si>
+    <t>Spire</t>
+  </si>
+  <si>
+    <t>Ares</t>
+  </si>
+  <si>
+    <t>Meridian</t>
+  </si>
+  <si>
+    <t>WEF2131</t>
+  </si>
+  <si>
+    <t>DG324</t>
+  </si>
+  <si>
+    <t>GSDF2423</t>
+  </si>
+  <si>
+    <t>234FSDF</t>
+  </si>
+  <si>
+    <t>FW32</t>
+  </si>
+  <si>
+    <t>DFA2346</t>
+  </si>
+  <si>
+    <t>SF342DS</t>
+  </si>
+  <si>
+    <t>KRYT77</t>
+  </si>
+  <si>
+    <t>GHJ6574</t>
+  </si>
+  <si>
+    <t>FG73</t>
+  </si>
+  <si>
+    <t>34534HDG</t>
+  </si>
+  <si>
+    <t>HE563DFG</t>
+  </si>
+  <si>
+    <t>G456GD</t>
+  </si>
+  <si>
+    <t>4234DFVS</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t>Gaia</t>
+  </si>
+  <si>
+    <t>241NNN</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>Maserati</t>
+  </si>
+  <si>
+    <t>Jaguar</t>
+  </si>
+  <si>
+    <t>Reaver</t>
+  </si>
+  <si>
+    <t>Blitz</t>
+  </si>
+  <si>
+    <t>CHP06126</t>
+  </si>
+  <si>
+    <t>8RW3CV3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,13 +355,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D0FE5D-7DA3-1F47-943A-DCDB6F1D1C2C}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,7 +753,331 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>